--- a/bin/mia-result/06_Data_5/Data_5_results.xlsx
+++ b/bin/mia-result/06_Data_5/Data_5_results.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7361bdf95a53a600/Dokumente/Nic_Stuff/GitHub/MIALab_project/bin/mia-result/06_Data_5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/634d2c18404eb9fd/Dokumente/GitHub/MIALab_project/bin/mia-result/06_Data_5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0036FF4-2883-4B7E-A8B3-96F65E85DE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{E0036FF4-2883-4B7E-A8B3-96F65E85DE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{253B8A2D-01FC-4F79-8069-0F1600855A2D}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="1230" windowWidth="14850" windowHeight="11460"/>
+    <workbookView xWindow="18450" yWindow="-13290" windowWidth="7770" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -112,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -946,16 +957,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14:U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>100307</v>
       </c>
@@ -1082,7 +1093,7 @@
         <v>0.83934286825525395</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>100307</v>
       </c>
@@ -1153,7 +1164,7 @@
         <v>0.84199926967317795</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>100307</v>
       </c>
@@ -1220,7 +1231,7 @@
         <v>0.835202411529541</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>100307</v>
       </c>
@@ -1287,7 +1298,7 @@
         <v>0.84621546388417901</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>100307</v>
       </c>
@@ -1358,7 +1369,7 @@
         <v>0.83038406425962097</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1429,7 +1440,7 @@
         <v>0.850059941135207</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1496,7 +1507,7 @@
         <v>0.84089386045762105</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1563,7 +1574,7 @@
         <v>0.83299251875522395</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1634,7 +1645,7 @@
         <v>0.84702987284908604</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1705,7 +1716,7 @@
         <v>0.84412160245912804</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>100408</v>
       </c>
@@ -1732,7 +1743,7 @@
         <v>4.6723321581894997</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>100408</v>
       </c>
@@ -1758,8 +1769,48 @@
         <f>_xlfn.STDEV.S(D9,D19,D29,D39,D49,D59,D69,D79,D89,D99)</f>
         <v>2.2777455236722886</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f>AVERAGE(L2:L11)</f>
+        <v>0.53430250032270477</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:U13" si="0">AVERAGE(M2:M11)</f>
+        <v>0.65468260055814387</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.7315451408726491</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>0.71067331224341734</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>0.5345233791063565</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>0.67934929150791556</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>0.751360070043256</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0.81035407170653395</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>0.82591906059735631</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>0.84082418732580388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>100408</v>
       </c>
@@ -1789,8 +1840,48 @@
         <f xml:space="preserve"> AVERAGE(C5,C15,C25,C35,C45,C55,C65,C75,C85,C95,C105)</f>
         <v>0.751360070043256</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f>_xlfn.STDEV.S(L2:L11)</f>
+        <v>2.3833092741382844E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:U14" si="1">_xlfn.STDEV.S(M2:M11)</f>
+        <v>3.3835740165989843E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>6.1145542667744874E-3</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>7.7741638780685152E-3</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>5.718544170146294E-2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>7.3547941763582397E-2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>2.4089536169383367E-2</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>2.2770461314073231E-2</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>9.7580882761174794E-3</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>6.4054146810788278E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>100408</v>
       </c>
@@ -1821,7 +1912,7 @@
         <v>2.4089536169383367E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>100408</v>
       </c>
@@ -1848,7 +1939,7 @@
         <v>3.9445109494498025</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1875,7 +1966,7 @@
         <v>0.5172935655576365</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1906,7 +1997,7 @@
         <v>0.82591906059735631</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1937,7 +2028,7 @@
         <v>9.7580882761174794E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1964,7 +2055,7 @@
         <v>2.3764877093348251</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1991,7 +2082,7 @@
         <v>0.24107667609314049</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>101915</v>
       </c>
@@ -2005,7 +2096,7 @@
         <v>12.5299640861416</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A23">
         <v>101915</v>
       </c>
@@ -2019,7 +2110,7 @@
         <v>1.7320508075688701</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>101915</v>
       </c>
@@ -2033,7 +2124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A25">
         <v>101915</v>
       </c>
@@ -2047,7 +2138,7 @@
         <v>14.491376746189401</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A26">
         <v>101915</v>
       </c>
@@ -2061,7 +2152,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2075,7 +2166,7 @@
         <v>8.3066238629180695</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2089,7 +2180,7 @@
         <v>3.1622776601683702</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -2103,7 +2194,7 @@
         <v>4.1231056256176597</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -2117,7 +2208,7 @@
         <v>3.74165738677394</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2131,7 +2222,7 @@
         <v>2.4494897427831699</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A32">
         <v>103414</v>
       </c>
@@ -2145,7 +2236,7 @@
         <v>12.5299640861416</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A33">
         <v>103414</v>
       </c>
@@ -2159,7 +2250,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A34">
         <v>103414</v>
       </c>
@@ -2173,7 +2264,7 @@
         <v>12.5299640861416</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A35">
         <v>103414</v>
       </c>
@@ -2187,7 +2278,7 @@
         <v>13.1529464379659</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A36">
         <v>103414</v>
       </c>
@@ -2201,7 +2292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2215,7 +2306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2229,7 +2320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2243,7 +2334,7 @@
         <v>3.6055512754639798</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2257,7 +2348,7 @@
         <v>3.3166247903553998</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2271,7 +2362,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A42">
         <v>105115</v>
       </c>
@@ -2285,7 +2376,7 @@
         <v>14.247806848774999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A43">
         <v>105115</v>
       </c>
@@ -2299,7 +2390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A44">
         <v>105115</v>
       </c>
@@ -2313,7 +2404,7 @@
         <v>14.491376746189401</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A45">
         <v>105115</v>
       </c>
@@ -2327,7 +2418,7 @@
         <v>8.9442719099991592</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A46">
         <v>105115</v>
       </c>
@@ -2341,7 +2432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2355,7 +2446,7 @@
         <v>11.575836902790201</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2369,7 +2460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2383,7 +2474,7 @@
         <v>3.6055512754639798</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2397,7 +2488,7 @@
         <v>3.3166247903553998</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -2411,7 +2502,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A52">
         <v>113619</v>
       </c>
@@ -2425,7 +2516,7 @@
         <v>14.3178210632763</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A53">
         <v>113619</v>
       </c>
@@ -2439,7 +2530,7 @@
         <v>1.7320508075688701</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A54">
         <v>113619</v>
       </c>
@@ -2453,7 +2544,7 @@
         <v>12.688577540449501</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A55">
         <v>113619</v>
       </c>
@@ -2467,7 +2558,7 @@
         <v>12.0415945787922</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A56">
         <v>113619</v>
       </c>
@@ -2481,7 +2572,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2495,7 +2586,7 @@
         <v>10.770329614269</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2509,7 +2600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -2523,7 +2614,7 @@
         <v>3.3166247903553998</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -2537,7 +2628,7 @@
         <v>3.3166247903553998</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -2551,7 +2642,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A62">
         <v>116524</v>
       </c>
@@ -2565,7 +2656,7 @@
         <v>11.874342087037901</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A63">
         <v>116524</v>
       </c>
@@ -2579,7 +2670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A64">
         <v>116524</v>
       </c>
@@ -2593,7 +2684,7 @@
         <v>11.7473401244707</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A65">
         <v>116524</v>
       </c>
@@ -2607,7 +2698,7 @@
         <v>16.278820596099699</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A66">
         <v>116524</v>
       </c>
@@ -2621,7 +2712,7 @@
         <v>2.8284271247461898</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -2635,7 +2726,7 @@
         <v>9.6953597148326498</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -2649,7 +2740,7 @@
         <v>3.6055512754639798</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2663,7 +2754,7 @@
         <v>4.2426406871192803</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -2677,7 +2768,7 @@
         <v>4.1231056256176597</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -2691,7 +2782,7 @@
         <v>2.4494897427831699</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A72">
         <v>118730</v>
       </c>
@@ -2705,7 +2796,7 @@
         <v>13.8924439894498</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A73">
         <v>118730</v>
       </c>
@@ -2719,7 +2810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A74">
         <v>118730</v>
       </c>
@@ -2733,7 +2824,7 @@
         <v>11.575836902790201</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A75">
         <v>118730</v>
       </c>
@@ -2747,7 +2838,7 @@
         <v>13.9283882771841</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A76">
         <v>118730</v>
       </c>
@@ -2761,7 +2852,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2775,7 +2866,7 @@
         <v>8.6023252670426196</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2789,7 +2880,7 @@
         <v>3.6055512754639798</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -2803,7 +2894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -2817,7 +2908,7 @@
         <v>4.2426406871192803</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2831,7 +2922,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A82">
         <v>122317</v>
       </c>
@@ -2845,7 +2936,7 @@
         <v>13.8924439894498</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A83">
         <v>122317</v>
       </c>
@@ -2859,7 +2950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A84">
         <v>122317</v>
       </c>
@@ -2873,7 +2964,7 @@
         <v>13.453624047073699</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A85">
         <v>122317</v>
       </c>
@@ -2887,7 +2978,7 @@
         <v>11.6619037896906</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A86">
         <v>122317</v>
       </c>
@@ -2901,7 +2992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -2915,7 +3006,7 @@
         <v>10.049875621120799</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -2929,7 +3020,7 @@
         <v>4.1231056256176597</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -2943,7 +3034,7 @@
         <v>3.4641016151377499</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -2957,7 +3048,7 @@
         <v>4.1231056256176597</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -2971,7 +3062,7 @@
         <v>2.4494897427831699</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A92">
         <v>123925</v>
       </c>
@@ -2985,7 +3076,7 @@
         <v>12.2474487139158</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A93">
         <v>123925</v>
       </c>
@@ -2999,7 +3090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A94">
         <v>123925</v>
       </c>
@@ -3013,7 +3104,7 @@
         <v>13.8924439894498</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A95">
         <v>123925</v>
       </c>
@@ -3027,7 +3118,7 @@
         <v>15.0665191733193</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A96">
         <v>123925</v>
       </c>
@@ -3041,7 +3132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -3055,7 +3146,7 @@
         <v>10.049875621120799</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -3069,7 +3160,7 @@
         <v>3.6055512754639798</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -3083,7 +3174,7 @@
         <v>4.2426406871192803</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -3097,7 +3188,7 @@
         <v>4.1231056256176597</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>18</v>
       </c>
